--- a/uploads/Hala_Warehouse_Test.xlsx
+++ b/uploads/Hala_Warehouse_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALAMEEN\Desktop\new\hala-project\hala-project-api\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALAMEEN\Desktop\hala supply chain services\hala-project-api\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6F7CD-FDD4-47D5-AC64-8C83847A781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE6F817-F8D7-4F0C-B2C6-B554098CCC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{30C28542-17E7-44CC-951E-AF9E782F3199}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{30C28542-17E7-44CC-951E-AF9E782F3199}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouse Utilization" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E0547-363D-4097-B3E1-E37A6F1D23D4}">
   <dimension ref="A1:K471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+    <sheetView topLeftCell="A413" workbookViewId="0">
       <selection activeCell="G416" sqref="G416"/>
     </sheetView>
   </sheetViews>
@@ -17013,7 +17013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804660C1-3953-448E-A1AD-BFDC66BA956D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
